--- a/Documentação/plano de ação/PlanoDeAção_BeCold.xlsx
+++ b/Documentação/plano de ação/PlanoDeAção_BeCold.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBAD1D4-602E-4406-9F65-27454797227D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5273B7-B5CE-4D22-A712-FF3971A69171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do plano de Ação" sheetId="1" r:id="rId1"/>
@@ -32,24 +32,11 @@
     <definedName name="txtPersonalizado4">'Dados do plano de Ação'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Dados do plano de marketing</t>
   </si>
@@ -199,6 +186,12 @@
   </si>
   <si>
     <t>Previsão de término</t>
+  </si>
+  <si>
+    <t>Thalita, Guilherme</t>
+  </si>
+  <si>
+    <t>Paulo, Kaiqui</t>
   </si>
 </sst>
 </file>
@@ -6411,6 +6404,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dados" displayName="Dados" ref="B6:H21" headerRowDxfId="45">
   <autoFilter ref="B6:H21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H21">
+    <sortCondition ref="D6:D21"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarefa" totalsRowLabel="Total" dataDxfId="44"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Status" totalsRowFunction="count" dataDxfId="43"/>
@@ -6777,8 +6773,8 @@
   </sheetPr>
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6951,19 +6947,19 @@
     </row>
     <row r="10" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G10" s="14">
         <f ca="1">DATE(YEAR(TODAY()),10,2)</f>
@@ -6976,7 +6972,7 @@
     </row>
     <row r="11" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>9</v>
@@ -6988,7 +6984,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G11" s="14">
         <f ca="1">DATE(YEAR(TODAY()),10,2)</f>
@@ -7001,226 +6997,242 @@
     </row>
     <row r="12" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="G12" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,9)</f>
-        <v>45208</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,2)</f>
+        <v>45201</v>
       </c>
       <c r="H12" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,13)</f>
-        <v>45212</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,6)</f>
+        <v>45205</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,9)</f>
-        <v>45208</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,2)</f>
+        <v>45201</v>
       </c>
       <c r="H13" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,13)</f>
-        <v>45212</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,6)</f>
+        <v>45205</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="G14" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,9)</f>
-        <v>45208</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,2)</f>
+        <v>45201</v>
       </c>
       <c r="H14" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,13)</f>
-        <v>45212</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,6)</f>
+        <v>45205</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="G15" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,9)</f>
-        <v>45208</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,2)</f>
+        <v>45201</v>
       </c>
       <c r="H15" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,13)</f>
-        <v>45212</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,6)</f>
+        <v>45205</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G16" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,2)</f>
-        <v>45201</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,4)</f>
+        <v>45203</v>
       </c>
       <c r="H16" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,6)</f>
-        <v>45205</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,11)</f>
+        <v>45210</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="G17" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,16)</f>
-        <v>45215</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,9)</f>
+        <v>45208</v>
       </c>
       <c r="H17" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,20)</f>
-        <v>45219</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,13)</f>
+        <v>45212</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="G18" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,16)</f>
-        <v>45215</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,9)</f>
+        <v>45208</v>
       </c>
       <c r="H18" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,20)</f>
-        <v>45219</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,11)</f>
+        <v>45210</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>15</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F19" s="21"/>
       <c r="G19" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,2)</f>
-        <v>45201</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,9)</f>
+        <v>45208</v>
       </c>
       <c r="H19" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,6)</f>
-        <v>45205</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,13)</f>
+        <v>45212</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>16</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,2)</f>
-        <v>45201</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,16)</f>
+        <v>45215</v>
       </c>
       <c r="H20" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,6)</f>
-        <v>45205</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,20)</f>
+        <v>45219</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>15</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E21" s="13"/>
       <c r="F21" s="21"/>
       <c r="G21" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,2)</f>
-        <v>45201</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,16)</f>
+        <v>45215</v>
       </c>
       <c r="H21" s="14">
-        <f ca="1">DATE(YEAR(TODAY()),10,6)</f>
-        <v>45205</v>
+        <f ca="1">DATE(YEAR(TODAY()),10,20)</f>
+        <v>45219</v>
       </c>
     </row>
   </sheetData>
@@ -7506,24 +7518,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cf6cf056b5324d160236e2ac13572175">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="308e4927137fd5e63b6be1bd7725299e" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7743,25 +7737,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99945BEB-7D41-4FB6-9D32-A35A84B455C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB26FF4A-9A24-42D8-B946-9CA436224F6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ACF481C-B850-47D3-8383-E0C13159DD26}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7779,4 +7773,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB26FF4A-9A24-42D8-B946-9CA436224F6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99945BEB-7D41-4FB6-9D32-A35A84B455C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>